--- a/resources/uniqueparameters.xlsx
+++ b/resources/uniqueparameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riley\LocalData\Code\Github\wells4hydrogeology\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A7BDD-1FE5-4BF1-BF9D-5027779C0686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8FEF01-50BC-4E87-89A3-6DB4B4B04094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" xr2:uid="{BEAAB42D-7886-41EE-B266-3059796DF203}"/>
   </bookViews>
@@ -675,19 +675,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -1003,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E944D8C-F80C-45C1-BCD5-CB20A9461725}">
-  <dimension ref="A1:P132"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1016,7 @@
     <col min="16" max="16" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>184</v>
       </c>
@@ -1054,11 +1048,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>147</v>
       </c>
       <c r="C2" t="s">
@@ -1090,11 +1084,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>147</v>
       </c>
       <c r="C3" t="s">
@@ -1125,11 +1119,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>147</v>
       </c>
       <c r="C4" t="s">
@@ -1160,11 +1154,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>147</v>
       </c>
       <c r="C5" t="s">
@@ -1195,11 +1189,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>147</v>
       </c>
       <c r="C6" t="s">
@@ -1223,13 +1217,12 @@
         <f t="array" ref="L6">INDEX($A$2:$A$132,SMALL(IF(ISNUMBER(MATCH($C$2:$C$132,$C6, 0)),MATCH(ROW($C$2:$C$132), ROW($C$2:$C$132)),””),ROWS($A$1:A5)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>148</v>
       </c>
       <c r="C7" t="s">
@@ -1254,11 +1247,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>148</v>
       </c>
       <c r="C8" t="s">
@@ -1283,11 +1276,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>148</v>
       </c>
       <c r="C9" t="s">
@@ -1312,11 +1305,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>148</v>
       </c>
       <c r="C10" t="s">
@@ -1341,11 +1334,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>148</v>
       </c>
       <c r="C11" t="s">
@@ -1367,11 +1360,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>148</v>
       </c>
       <c r="C12" t="s">
@@ -1393,11 +1386,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>148</v>
       </c>
       <c r="C13" t="s">
@@ -1419,11 +1412,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>148</v>
       </c>
       <c r="C14" t="s">
@@ -1445,11 +1438,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>149</v>
       </c>
       <c r="C15" t="s">
@@ -1468,11 +1461,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>149</v>
       </c>
       <c r="C16" t="s">
@@ -1510,7 +1503,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>150</v>
       </c>
       <c r="C17" t="s">
@@ -1539,7 +1532,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>150</v>
       </c>
       <c r="C18" t="s">
@@ -1562,7 +1555,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>151</v>
       </c>
       <c r="C19" t="s">
@@ -1585,7 +1578,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>151</v>
       </c>
       <c r="C20" t="s">
@@ -1614,7 +1607,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>151</v>
       </c>
       <c r="C21" t="s">
@@ -1643,7 +1636,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>151</v>
       </c>
       <c r="C22" t="s">
@@ -1672,7 +1665,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>151</v>
       </c>
       <c r="C23" t="s">
@@ -1707,7 +1700,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>151</v>
       </c>
       <c r="C24" t="s">
@@ -1742,7 +1735,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>151</v>
       </c>
       <c r="C25" t="s">
@@ -1777,7 +1770,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>152</v>
       </c>
       <c r="C26" t="s">
@@ -1812,7 +1805,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>152</v>
       </c>
       <c r="C27" t="s">
@@ -1841,7 +1834,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>152</v>
       </c>
       <c r="C28" t="s">
@@ -1870,7 +1863,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>152</v>
       </c>
       <c r="C29" t="s">
@@ -1899,7 +1892,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>152</v>
       </c>
       <c r="C30" t="s">
@@ -1931,7 +1924,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>152</v>
       </c>
       <c r="C31" t="s">
@@ -1960,7 +1953,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>153</v>
       </c>
       <c r="C32" t="s">
@@ -1983,7 +1976,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>153</v>
       </c>
       <c r="C33" t="s">
@@ -2006,7 +1999,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
@@ -2038,7 +2031,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>154</v>
       </c>
       <c r="C35" t="s">
@@ -2061,7 +2054,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>154</v>
       </c>
       <c r="C36" t="s">
@@ -2084,7 +2077,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>155</v>
       </c>
       <c r="C37" t="s">
@@ -2107,7 +2100,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>155</v>
       </c>
       <c r="C38" t="s">
@@ -2136,7 +2129,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>155</v>
       </c>
       <c r="C39" t="s">
@@ -2165,7 +2158,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>156</v>
       </c>
       <c r="C40" t="s">
@@ -2188,7 +2181,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>156</v>
       </c>
       <c r="C41" t="s">
@@ -2217,7 +2210,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>156</v>
       </c>
       <c r="C42" t="s">
@@ -2246,7 +2239,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>156</v>
       </c>
       <c r="C43" t="s">
@@ -2275,7 +2268,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>157</v>
       </c>
       <c r="C44" t="s">
@@ -2298,7 +2291,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>157</v>
       </c>
       <c r="C45" t="s">
@@ -2327,7 +2320,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>157</v>
       </c>
       <c r="C46" t="s">
@@ -2356,7 +2349,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>157</v>
       </c>
       <c r="C47" t="s">
@@ -2385,7 +2378,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>158</v>
       </c>
       <c r="C48" t="s">
@@ -2404,11 +2397,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>158</v>
       </c>
       <c r="C49" t="s">
@@ -2433,11 +2426,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>158</v>
       </c>
       <c r="C50" t="s">
@@ -2462,11 +2455,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>159</v>
       </c>
       <c r="C51" t="s">
@@ -2497,11 +2490,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>159</v>
       </c>
       <c r="C52" t="s">
@@ -2526,11 +2519,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>159</v>
       </c>
       <c r="C53" t="s">
@@ -2561,11 +2554,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>159</v>
       </c>
       <c r="C54" t="s">
@@ -2590,11 +2583,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>159</v>
       </c>
       <c r="C55" t="s">
@@ -2625,11 +2618,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>159</v>
       </c>
       <c r="C56" t="s">
@@ -2654,11 +2647,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>160</v>
       </c>
       <c r="C57" t="s">
@@ -2677,11 +2670,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>160</v>
       </c>
       <c r="C58" t="s">
@@ -2705,13 +2698,12 @@
         <f t="array" ref="L58">INDEX($A$2:$A$132,SMALL(IF(ISNUMBER(MATCH($C$2:$C$132,$C58, 0)),MATCH(ROW($C$2:$C$132), ROW($C$2:$C$132)),””),ROWS($A$1:A57)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>160</v>
       </c>
       <c r="C59" t="s">
@@ -2736,11 +2728,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>160</v>
       </c>
       <c r="C60" t="s">
@@ -2765,11 +2757,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>160</v>
       </c>
       <c r="C61" t="s">
@@ -2794,11 +2786,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>160</v>
       </c>
       <c r="C62" t="s">
@@ -2826,11 +2818,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>160</v>
       </c>
       <c r="C63" t="s">
@@ -2855,11 +2847,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>160</v>
       </c>
       <c r="C64" t="s">
@@ -2888,7 +2880,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>161</v>
       </c>
       <c r="C65" t="s">
@@ -2911,7 +2903,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>161</v>
       </c>
       <c r="C66" t="s">
@@ -2934,7 +2926,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>161</v>
       </c>
       <c r="C67" t="s">
@@ -2963,7 +2955,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>161</v>
       </c>
       <c r="C68" t="s">
@@ -2992,7 +2984,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>162</v>
       </c>
       <c r="C69" t="s">
@@ -3015,7 +3007,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>162</v>
       </c>
       <c r="C70" t="s">
@@ -3038,7 +3030,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>162</v>
       </c>
       <c r="C71" t="s">
@@ -3067,7 +3059,7 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>162</v>
       </c>
       <c r="C72" t="s">
@@ -3096,7 +3088,7 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>177</v>
       </c>
       <c r="C73" t="s">
@@ -3119,7 +3111,7 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>177</v>
       </c>
       <c r="C74" t="s">
@@ -3142,7 +3134,7 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>178</v>
       </c>
       <c r="C75" t="s">
@@ -3165,7 +3157,7 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>178</v>
       </c>
       <c r="C76" t="s">
@@ -3188,7 +3180,7 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>163</v>
       </c>
       <c r="C77" t="s">
@@ -3211,7 +3203,7 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>163</v>
       </c>
       <c r="C78" t="s">
@@ -3234,7 +3226,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>163</v>
       </c>
       <c r="C79" t="s">
@@ -3263,7 +3255,7 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>163</v>
       </c>
       <c r="C80" t="s">
@@ -3292,7 +3284,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>164</v>
       </c>
       <c r="C81" t="s">
@@ -3315,7 +3307,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>164</v>
       </c>
       <c r="C82" t="s">
@@ -3344,7 +3336,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>164</v>
       </c>
       <c r="C83" t="s">
@@ -3373,7 +3365,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>165</v>
       </c>
       <c r="C84" t="s">
@@ -3396,7 +3388,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>165</v>
       </c>
       <c r="C85" t="s">
@@ -3425,7 +3417,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>166</v>
       </c>
       <c r="C86" t="s">
@@ -3460,7 +3452,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>166</v>
       </c>
       <c r="C87" t="s">
@@ -3489,7 +3481,7 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>166</v>
       </c>
       <c r="C88" t="s">
@@ -3518,7 +3510,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>166</v>
       </c>
       <c r="C89" t="s">
@@ -3553,7 +3545,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>167</v>
       </c>
       <c r="C90" t="s">
@@ -3576,7 +3568,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>167</v>
       </c>
       <c r="C91" t="s">
@@ -3599,7 +3591,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>167</v>
       </c>
       <c r="C92" t="s">
@@ -3628,7 +3620,7 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>167</v>
       </c>
       <c r="C93" t="s">
@@ -3657,7 +3649,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>168</v>
       </c>
       <c r="C94" t="s">
@@ -3680,7 +3672,7 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>168</v>
       </c>
       <c r="C95" t="s">
@@ -3703,7 +3695,7 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>168</v>
       </c>
       <c r="C96" t="s">
@@ -3728,11 +3720,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>169</v>
       </c>
       <c r="C97" t="s">
@@ -3750,13 +3742,12 @@
         <f t="array" ref="L97">INDEX($A$2:$A$132,SMALL(IF(ISNUMBER(MATCH($C$2:$C$132,$C97, 0)),MATCH(ROW($C$2:$C$132), ROW($C$2:$C$132)),””),ROWS($A$1:A96)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="P97" s="1"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>169</v>
       </c>
       <c r="C98" t="s">
@@ -3775,11 +3766,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>169</v>
       </c>
       <c r="C99" t="s">
@@ -3803,13 +3794,12 @@
         <f t="array" ref="L99">INDEX($A$2:$A$132,SMALL(IF(ISNUMBER(MATCH($C$2:$C$132,$C99, 0)),MATCH(ROW($C$2:$C$132), ROW($C$2:$C$132)),””),ROWS($A$1:A98)))</f>
         <v>#NAME?</v>
       </c>
-      <c r="P99" s="1"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>169</v>
       </c>
       <c r="C100" t="s">
@@ -3834,11 +3824,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>170</v>
       </c>
       <c r="C101" t="s">
@@ -3857,11 +3847,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>170</v>
       </c>
       <c r="C102" t="s">
@@ -3880,11 +3870,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>170</v>
       </c>
       <c r="C103" t="s">
@@ -3909,11 +3899,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>170</v>
       </c>
       <c r="C104" t="s">
@@ -3938,11 +3928,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>170</v>
       </c>
       <c r="C105" t="s">
@@ -3967,11 +3957,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>171</v>
       </c>
       <c r="C106" t="s">
@@ -3990,11 +3980,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>171</v>
       </c>
       <c r="C107" t="s">
@@ -4019,11 +4009,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>172</v>
       </c>
       <c r="C108" t="s">
@@ -4042,11 +4032,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>172</v>
       </c>
       <c r="C109" t="s">
@@ -4071,11 +4061,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>172</v>
       </c>
       <c r="C110" t="s">
@@ -4106,11 +4096,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>172</v>
       </c>
       <c r="C111" t="s">
@@ -4135,11 +4125,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>172</v>
       </c>
       <c r="C112" t="s">
@@ -4168,7 +4158,7 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>172</v>
       </c>
       <c r="C113" t="s">
@@ -4197,7 +4187,7 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>172</v>
       </c>
       <c r="C114" t="s">
@@ -4226,7 +4216,7 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>173</v>
       </c>
       <c r="C115" t="s">
@@ -4249,7 +4239,7 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>173</v>
       </c>
       <c r="C116" t="s">
@@ -4278,7 +4268,7 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>173</v>
       </c>
       <c r="C117" t="s">
@@ -4313,7 +4303,7 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>173</v>
       </c>
       <c r="C118" t="s">
@@ -4342,7 +4332,7 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>173</v>
       </c>
       <c r="C119" t="s">
@@ -4371,7 +4361,7 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>173</v>
       </c>
       <c r="C120" t="s">
@@ -4406,7 +4396,7 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>173</v>
       </c>
       <c r="C121" t="s">
@@ -4435,7 +4425,7 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
         <v>173</v>
       </c>
       <c r="C122" t="s">
@@ -4464,7 +4454,7 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
         <v>173</v>
       </c>
       <c r="C123" t="s">
@@ -4499,7 +4489,7 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>173</v>
       </c>
       <c r="C124" t="s">
@@ -4534,7 +4524,7 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
         <v>173</v>
       </c>
       <c r="C125" t="s">
@@ -4563,7 +4553,7 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
         <v>173</v>
       </c>
       <c r="C126" t="s">
@@ -4592,7 +4582,7 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="s">
         <v>174</v>
       </c>
       <c r="C127" t="s">
@@ -4615,7 +4605,7 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="s">
         <v>174</v>
       </c>
       <c r="C128" t="s">
@@ -4638,7 +4628,7 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
         <v>174</v>
       </c>
       <c r="C129" t="s">
@@ -4667,7 +4657,7 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s">
         <v>174</v>
       </c>
       <c r="C130" t="s">
@@ -4696,7 +4686,7 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
         <v>174</v>
       </c>
       <c r="C131" t="s">
@@ -4725,7 +4715,7 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s">
         <v>174</v>
       </c>
       <c r="C132" t="s">
